--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -52,28 +52,31 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Tipo de comentario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Tipo de comentarios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Clasificación del comentario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Clasificación de los comentarios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -85,12 +88,13 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Clasificación de la involucración</t>
+      <t>Clasificación de involucración</t>
     </r>
   </si>
   <si>
@@ -447,7 +451,7 @@
     <numFmt numFmtId="177" formatCode="@"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,12 +467,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
@@ -704,10 +702,10 @@
   <autoFilter ref="A1:E55"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" dataDxfId="4"/>
-    <tableColumn id="3" name="Tipo de comentario" dataDxfId="3"/>
-    <tableColumn id="4" name="Clasificación del comentario" dataDxfId="2"/>
+    <tableColumn id="3" name="Tipo de comentarios" dataDxfId="3"/>
+    <tableColumn id="4" name="Clasificación de los comentarios" dataDxfId="2"/>
     <tableColumn id="5" name="Tipo de involucración" dataDxfId="1"/>
-    <tableColumn id="6" name="Clasificación de la involucración" dataDxfId="0"/>
+    <tableColumn id="6" name="Clasificación de involucración" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -46,7 +46,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Date</t>
+      <t>Fecha</t>
     </r>
   </si>
   <si>
@@ -204,18 +204,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Service</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email</t>
+      <t>Servicio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Correo electrónico</t>
     </r>
   </si>
   <si>
@@ -248,18 +248,19 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Service</t>
+      <t xml:space="preserve">1
+          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Servicio</t>
     </r>
   </si>
   <si>
@@ -303,7 +304,8 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t xml:space="preserve">4
+          </t>
     </r>
   </si>
   <si>
@@ -337,6 +339,17 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>3</t>
     </r>
   </si>
@@ -349,6 +362,18 @@
         <family val="2"/>
       </rPr>
       <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+          </t>
     </r>
   </si>
   <si>
@@ -382,7 +407,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Email</t>
+      <t>Correo electrónico</t>
     </r>
   </si>
   <si>
@@ -428,6 +453,17 @@
       </rPr>
       <t xml:space="preserve">3
           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
     </r>
   </si>
   <si>
@@ -701,7 +737,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E55" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E55"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" name="Fecha" dataDxfId="4"/>
     <tableColumn id="3" name="Tipo de comentarios" dataDxfId="3"/>
     <tableColumn id="4" name="Clasificación de los comentarios" dataDxfId="2"/>
     <tableColumn id="5" name="Tipo de involucración" dataDxfId="1"/>
@@ -1074,10 +1110,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -1091,10 +1127,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -1108,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1122,13 +1158,13 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -1142,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1156,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1173,13 +1209,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -1190,13 +1226,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
@@ -1210,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -1227,10 +1263,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -1244,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -1258,10 +1294,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1278,10 +1314,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -1292,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1309,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -1326,10 +1362,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -1346,10 +1382,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
@@ -1360,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
@@ -1380,10 +1416,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
@@ -1397,10 +1433,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -1411,10 +1447,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -1431,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -1448,10 +1484,10 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15">
@@ -1465,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
@@ -1479,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
@@ -1496,13 +1532,13 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
@@ -1513,13 +1549,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
@@ -1530,13 +1566,13 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
@@ -1547,10 +1583,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
@@ -1564,10 +1600,10 @@
         <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>24</v>
@@ -1581,10 +1617,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
@@ -1601,10 +1637,10 @@
         <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1618,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>24</v>
@@ -1632,10 +1668,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -1652,10 +1688,10 @@
         <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1666,10 +1702,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>24</v>
@@ -1683,13 +1719,13 @@
         <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -1703,10 +1739,10 @@
         <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -1717,13 +1753,13 @@
         <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1734,13 +1770,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -1754,10 +1790,10 @@
         <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -1768,13 +1804,13 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -1785,13 +1821,13 @@
         <v>20</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -1805,10 +1841,10 @@
         <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -1822,10 +1858,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -1836,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
@@ -1853,10 +1889,10 @@
         <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>17</v>
@@ -1873,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>23</v>
@@ -1887,10 +1923,10 @@
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>24</v>
@@ -1904,10 +1940,10 @@
         <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
@@ -1927,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15">
@@ -1938,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -1955,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
